--- a/results/2025-26/schCNPFF2-v1/summaryPerTeamCNPFF2.xlsx
+++ b/results/2025-26/schCNPFF2-v1/summaryPerTeamCNPFF2.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Calendar" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$H$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Calendar!$A$1:$H$157</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="64">
   <si>
     <t>Team</t>
   </si>
@@ -110,6 +110,33 @@
     <t>RCAZ</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>02/11/2025</t>
+  </si>
+  <si>
+    <t>AAT</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>08/11/2025</t>
+  </si>
+  <si>
+    <t>HANFF</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>15/11/2025</t>
+  </si>
+  <si>
+    <t>SCCM</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -131,76 +158,55 @@
     <t>12</t>
   </si>
   <si>
-    <t>25/01/2026</t>
+    <t>13/12/2025</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>01/02/2026</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>07/02/2026</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>15/02/2026</t>
+    <t>20/12/2025</t>
   </si>
   <si>
     <t>13/09/2025</t>
   </si>
   <si>
-    <t>HANFF</t>
-  </si>
-  <si>
     <t>20/09/2025</t>
   </si>
   <si>
     <t>27/09/2025</t>
   </si>
   <si>
-    <t>9</t>
+    <t>05/10/2025</t>
+  </si>
+  <si>
+    <t>09/11/2025</t>
   </si>
   <si>
     <t>16/11/2025</t>
   </si>
   <si>
-    <t>AAT</t>
-  </si>
-  <si>
     <t>07/12/2025</t>
   </si>
   <si>
-    <t>SCCM</t>
-  </si>
-  <si>
-    <t>24/01/2026</t>
-  </si>
-  <si>
-    <t>08/02/2026</t>
-  </si>
-  <si>
-    <t>05/10/2025</t>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
   </si>
   <si>
     <t>18/10/2025</t>
   </si>
   <si>
+    <t>01/11/2025</t>
+  </si>
+  <si>
     <t>23/11/2025</t>
   </si>
   <si>
-    <t>14/02/2026</t>
+    <t>14/12/2025</t>
   </si>
   <si>
     <t>11/10/2025</t>
-  </si>
-  <si>
-    <t>31/01/2026</t>
   </si>
 </sst>
 </file>
@@ -247,8 +253,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1201">
+  <cellXfs count="1249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -1455,7 +1509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1654,7 +1708,7 @@
         <v>31</v>
       </c>
       <c r="D8" t="s" s="52">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s" s="53">
         <v>32</v>
@@ -1663,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="G8" t="s" s="55">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s" s="56">
         <v>8</v>
-      </c>
-      <c r="H8" t="s" s="56">
-        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1689,10 +1743,10 @@
         <v>13</v>
       </c>
       <c r="G9" t="s" s="63">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s" s="64">
         <v>36</v>
-      </c>
-      <c r="H9" t="s" s="64">
-        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1706,7 +1760,7 @@
         <v>37</v>
       </c>
       <c r="D10" t="s" s="68">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s" s="69">
         <v>38</v>
@@ -1715,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="G10" t="s" s="71">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s" s="72">
         <v>8</v>
@@ -1729,22 +1783,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s" s="75">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="76">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s" s="77">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="78">
         <v>13</v>
       </c>
       <c r="G11" t="s" s="79">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H11" t="s" s="80">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1755,22 +1809,22 @@
         <v>9</v>
       </c>
       <c r="C12" t="s" s="83">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s" s="84">
         <v>22</v>
       </c>
       <c r="E12" t="s" s="85">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="86">
         <v>13</v>
       </c>
       <c r="G12" t="s" s="87">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s" s="88">
         <v>8</v>
-      </c>
-      <c r="H12" t="s" s="88">
-        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1781,19 +1835,19 @@
         <v>9</v>
       </c>
       <c r="C13" t="s" s="91">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s" s="92">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s" s="93">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s" s="94">
         <v>13</v>
       </c>
       <c r="G13" t="s" s="95">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="96">
         <v>8</v>
@@ -1801,28 +1855,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="97">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s" s="98">
         <v>9</v>
       </c>
       <c r="C14" t="s" s="99">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s" s="100">
         <v>22</v>
       </c>
       <c r="E14" t="s" s="101">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s" s="102">
         <v>13</v>
       </c>
       <c r="G14" t="s" s="103">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s" s="104">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1833,22 +1887,22 @@
         <v>9</v>
       </c>
       <c r="C15" t="s" s="107">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s" s="108">
         <v>22</v>
       </c>
       <c r="E15" t="s" s="109">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="110">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="111">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s" s="112">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
@@ -1859,22 +1913,22 @@
         <v>9</v>
       </c>
       <c r="C16" t="s" s="115">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s" s="116">
         <v>22</v>
       </c>
       <c r="E16" t="s" s="117">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="118">
         <v>13</v>
       </c>
       <c r="G16" t="s" s="119">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s" s="120">
         <v>30</v>
-      </c>
-      <c r="H16" t="s" s="120">
-        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -1885,22 +1939,22 @@
         <v>9</v>
       </c>
       <c r="C17" t="s" s="123">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s" s="124">
         <v>22</v>
       </c>
       <c r="E17" t="s" s="125">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s" s="126">
         <v>13</v>
       </c>
       <c r="G17" t="s" s="127">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s" s="128">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -1911,22 +1965,22 @@
         <v>9</v>
       </c>
       <c r="C18" t="s" s="131">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s" s="132">
         <v>11</v>
       </c>
       <c r="E18" t="s" s="133">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s" s="134">
         <v>13</v>
       </c>
       <c r="G18" t="s" s="135">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="136">
         <v>30</v>
-      </c>
-      <c r="H18" t="s" s="136">
-        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -1937,22 +1991,22 @@
         <v>9</v>
       </c>
       <c r="C19" t="s" s="139">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s" s="140">
         <v>11</v>
       </c>
       <c r="E19" t="s" s="141">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s" s="142">
         <v>13</v>
       </c>
       <c r="G19" t="s" s="143">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H19" t="s" s="144">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -1963,19 +2017,19 @@
         <v>9</v>
       </c>
       <c r="C20" t="s" s="147">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s" s="148">
         <v>11</v>
       </c>
       <c r="E20" t="s" s="149">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s" s="150">
         <v>13</v>
       </c>
       <c r="G20" t="s" s="151">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="H20" t="s" s="152">
         <v>30</v>
@@ -1992,7 +2046,7 @@
         <v>31</v>
       </c>
       <c r="D21" t="s" s="156">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s" s="157">
         <v>32</v>
@@ -2004,7 +2058,7 @@
         <v>30</v>
       </c>
       <c r="H21" t="s" s="160">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -2021,13 +2075,13 @@
         <v>11</v>
       </c>
       <c r="E22" t="s" s="165">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s" s="166">
         <v>13</v>
       </c>
       <c r="G22" t="s" s="167">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H22" t="s" s="168">
         <v>30</v>
@@ -2044,16 +2098,16 @@
         <v>37</v>
       </c>
       <c r="D23" t="s" s="172">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s" s="173">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="174">
         <v>13</v>
       </c>
       <c r="G23" t="s" s="175">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s" s="176">
         <v>30</v>
@@ -2067,13 +2121,13 @@
         <v>9</v>
       </c>
       <c r="C24" t="s" s="179">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s" s="180">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s" s="181">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s" s="182">
         <v>13</v>
@@ -2082,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="H24" t="s" s="184">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -2093,19 +2147,19 @@
         <v>9</v>
       </c>
       <c r="C25" t="s" s="187">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s" s="188">
         <v>11</v>
       </c>
       <c r="E25" t="s" s="189">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s" s="190">
         <v>13</v>
       </c>
       <c r="G25" t="s" s="191">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H25" t="s" s="192">
         <v>30</v>
@@ -2119,48 +2173,48 @@
         <v>9</v>
       </c>
       <c r="C26" t="s" s="195">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s" s="196">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s" s="197">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s" s="198">
         <v>13</v>
       </c>
       <c r="G26" t="s" s="199">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s" s="200">
         <v>30</v>
-      </c>
-      <c r="H26" t="s" s="200">
-        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="201">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s" s="202">
         <v>9</v>
       </c>
       <c r="C27" t="s" s="203">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s" s="204">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s" s="205">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s" s="206">
         <v>13</v>
       </c>
       <c r="G27" t="s" s="207">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s" s="208">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2225,22 @@
         <v>9</v>
       </c>
       <c r="C28" t="s" s="211">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s" s="212">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s" s="213">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="214">
         <v>13</v>
       </c>
       <c r="G28" t="s" s="215">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s" s="216">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -2197,22 +2251,22 @@
         <v>9</v>
       </c>
       <c r="C29" t="s" s="219">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s" s="220">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s" s="221">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s" s="222">
         <v>13</v>
       </c>
       <c r="G29" t="s" s="223">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s" s="224">
         <v>17</v>
-      </c>
-      <c r="H29" t="s" s="224">
-        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2223,22 +2277,22 @@
         <v>9</v>
       </c>
       <c r="C30" t="s" s="227">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s" s="228">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s" s="229">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s" s="230">
         <v>13</v>
       </c>
       <c r="G30" t="s" s="231">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H30" t="s" s="232">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -2249,22 +2303,22 @@
         <v>9</v>
       </c>
       <c r="C31" t="s" s="235">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s" s="236">
         <v>11</v>
       </c>
       <c r="E31" t="s" s="237">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s" s="238">
         <v>13</v>
       </c>
       <c r="G31" t="s" s="239">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s" s="240">
         <v>17</v>
-      </c>
-      <c r="H31" t="s" s="240">
-        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -2275,22 +2329,22 @@
         <v>9</v>
       </c>
       <c r="C32" t="s" s="243">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s" s="244">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s" s="245">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s" s="246">
         <v>13</v>
       </c>
       <c r="G32" t="s" s="247">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s" s="248">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -2301,22 +2355,22 @@
         <v>9</v>
       </c>
       <c r="C33" t="s" s="251">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s" s="252">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s" s="253">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s" s="254">
         <v>13</v>
       </c>
       <c r="G33" t="s" s="255">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s" s="256">
         <v>17</v>
-      </c>
-      <c r="H33" t="s" s="256">
-        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -2327,22 +2381,22 @@
         <v>9</v>
       </c>
       <c r="C34" t="s" s="259">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s" s="260">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s" s="261">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F34" t="s" s="262">
         <v>13</v>
       </c>
       <c r="G34" t="s" s="263">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H34" t="s" s="264">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -2353,10 +2407,10 @@
         <v>9</v>
       </c>
       <c r="C35" t="s" s="267">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s" s="268">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s" s="269">
         <v>54</v>
@@ -2365,10 +2419,10 @@
         <v>13</v>
       </c>
       <c r="G35" t="s" s="271">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s" s="272">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -2379,22 +2433,22 @@
         <v>9</v>
       </c>
       <c r="C36" t="s" s="275">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s" s="276">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s" s="277">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s" s="278">
         <v>13</v>
       </c>
       <c r="G36" t="s" s="279">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s" s="280">
         <v>17</v>
-      </c>
-      <c r="H36" t="s" s="280">
-        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2405,22 +2459,22 @@
         <v>9</v>
       </c>
       <c r="C37" t="s" s="283">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s" s="284">
         <v>11</v>
       </c>
       <c r="E37" t="s" s="285">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s" s="286">
         <v>13</v>
       </c>
       <c r="G37" t="s" s="287">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s" s="288">
         <v>33</v>
-      </c>
-      <c r="H37" t="s" s="288">
-        <v>17</v>
       </c>
     </row>
     <row r="38">
@@ -2434,71 +2488,71 @@
         <v>43</v>
       </c>
       <c r="D38" t="s" s="292">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s" s="293">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s" s="294">
         <v>13</v>
       </c>
       <c r="G38" t="s" s="295">
+        <v>36</v>
+      </c>
+      <c r="H38" t="s" s="296">
         <v>17</v>
-      </c>
-      <c r="H38" t="s" s="296">
-        <v>53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="297">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s" s="298">
         <v>9</v>
       </c>
       <c r="C39" t="s" s="299">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s" s="300">
         <v>11</v>
       </c>
       <c r="E39" t="s" s="301">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s" s="302">
         <v>13</v>
       </c>
       <c r="G39" t="s" s="303">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="304">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="305">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s" s="306">
         <v>9</v>
       </c>
       <c r="C40" t="s" s="307">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s" s="308">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s" s="309">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s" s="310">
         <v>13</v>
       </c>
       <c r="G40" t="s" s="311">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H40" t="s" s="312">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2509,13 +2563,13 @@
         <v>9</v>
       </c>
       <c r="C41" t="s" s="315">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s" s="316">
         <v>11</v>
       </c>
       <c r="E41" t="s" s="317">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s" s="318">
         <v>13</v>
@@ -2524,7 +2578,7 @@
         <v>20</v>
       </c>
       <c r="H41" t="s" s="320">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
@@ -2535,22 +2589,22 @@
         <v>9</v>
       </c>
       <c r="C42" t="s" s="323">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D42" t="s" s="324">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s" s="325">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s" s="326">
         <v>13</v>
       </c>
       <c r="G42" t="s" s="327">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s" s="328">
         <v>20</v>
-      </c>
-      <c r="H42" t="s" s="328">
-        <v>27</v>
       </c>
     </row>
     <row r="43">
@@ -2561,22 +2615,22 @@
         <v>9</v>
       </c>
       <c r="C43" t="s" s="331">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s" s="332">
         <v>11</v>
       </c>
       <c r="E43" t="s" s="333">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F43" t="s" s="334">
         <v>13</v>
       </c>
       <c r="G43" t="s" s="335">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s" s="336">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
@@ -2587,13 +2641,13 @@
         <v>9</v>
       </c>
       <c r="C44" t="s" s="339">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s" s="340">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s" s="341">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s" s="342">
         <v>13</v>
@@ -2602,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="H44" t="s" s="344">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
@@ -2613,22 +2667,22 @@
         <v>9</v>
       </c>
       <c r="C45" t="s" s="347">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s" s="348">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s" s="349">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F45" t="s" s="350">
         <v>13</v>
       </c>
       <c r="G45" t="s" s="351">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s" s="352">
         <v>20</v>
-      </c>
-      <c r="H45" t="s" s="352">
-        <v>36</v>
       </c>
     </row>
     <row r="46">
@@ -2639,22 +2693,22 @@
         <v>9</v>
       </c>
       <c r="C46" t="s" s="355">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s" s="356">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s" s="357">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s" s="358">
         <v>13</v>
       </c>
       <c r="G46" t="s" s="359">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s" s="360">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -2665,19 +2719,19 @@
         <v>9</v>
       </c>
       <c r="C47" t="s" s="363">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s" s="364">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s" s="365">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F47" t="s" s="366">
         <v>13</v>
       </c>
       <c r="G47" t="s" s="367">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s" s="368">
         <v>20</v>
@@ -2691,13 +2745,13 @@
         <v>9</v>
       </c>
       <c r="C48" t="s" s="371">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s" s="372">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s" s="373">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s" s="374">
         <v>13</v>
@@ -2706,7 +2760,7 @@
         <v>20</v>
       </c>
       <c r="H48" t="s" s="376">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -2717,19 +2771,19 @@
         <v>9</v>
       </c>
       <c r="C49" t="s" s="379">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D49" t="s" s="380">
         <v>22</v>
       </c>
       <c r="E49" t="s" s="381">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s" s="382">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s" s="383">
         <v>42</v>
-      </c>
-      <c r="F49" t="s" s="382">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s" s="383">
-        <v>8</v>
       </c>
       <c r="H49" t="s" s="384">
         <v>20</v>
@@ -2743,438 +2797,438 @@
         <v>9</v>
       </c>
       <c r="C50" t="s" s="387">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s" s="388">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s" s="389">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="390">
         <v>13</v>
       </c>
       <c r="G50" t="s" s="391">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s" s="392">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="393">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s" s="394">
         <v>9</v>
       </c>
       <c r="C51" t="s" s="395">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D51" t="s" s="396">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s" s="397">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s" s="398">
         <v>13</v>
       </c>
       <c r="G51" t="s" s="399">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s" s="400">
         <v>20</v>
-      </c>
-      <c r="H51" t="s" s="400">
-        <v>53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="401">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s" s="402">
         <v>9</v>
       </c>
       <c r="C52" t="s" s="403">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s" s="404">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s" s="405">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s" s="406">
         <v>13</v>
       </c>
       <c r="G52" t="s" s="407">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H52" t="s" s="408">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="409">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s" s="410">
         <v>9</v>
       </c>
       <c r="C53" t="s" s="411">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s" s="412">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E53" t="s" s="413">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s" s="414">
         <v>13</v>
       </c>
       <c r="G53" t="s" s="415">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s" s="416">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="417">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s" s="418">
         <v>9</v>
       </c>
       <c r="C54" t="s" s="419">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s" s="420">
         <v>11</v>
       </c>
       <c r="E54" t="s" s="421">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s" s="422">
         <v>13</v>
       </c>
       <c r="G54" t="s" s="423">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s" s="424">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="425">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s" s="426">
         <v>9</v>
       </c>
       <c r="C55" t="s" s="427">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s" s="428">
         <v>22</v>
       </c>
       <c r="E55" t="s" s="429">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F55" t="s" s="430">
         <v>13</v>
       </c>
       <c r="G55" t="s" s="431">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H55" t="s" s="432">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="433">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s" s="434">
         <v>9</v>
       </c>
       <c r="C56" t="s" s="435">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s" s="436">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s" s="437">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s" s="438">
         <v>13</v>
       </c>
       <c r="G56" t="s" s="439">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H56" t="s" s="440">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="441">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s" s="442">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s" s="443">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s" s="444">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s" s="445">
         <v>53</v>
       </c>
-      <c r="B57" t="s" s="442">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s" s="443">
-        <v>31</v>
-      </c>
-      <c r="D57" t="s" s="444">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s" s="445">
-        <v>58</v>
-      </c>
       <c r="F57" t="s" s="446">
         <v>13</v>
       </c>
       <c r="G57" t="s" s="447">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s" s="448">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="449">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s" s="450">
         <v>9</v>
       </c>
       <c r="C58" t="s" s="451">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s" s="452">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s" s="453">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s" s="454">
         <v>13</v>
       </c>
       <c r="G58" t="s" s="455">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s" s="456">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="457">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s" s="458">
         <v>9</v>
       </c>
       <c r="C59" t="s" s="459">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s" s="460">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s" s="461">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s" s="462">
         <v>13</v>
       </c>
       <c r="G59" t="s" s="463">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s" s="464">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="465">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s" s="466">
         <v>9</v>
       </c>
       <c r="C60" t="s" s="467">
+        <v>31</v>
+      </c>
+      <c r="D60" t="s" s="468">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s" s="469">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s" s="470">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s" s="471">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s" s="472">
         <v>39</v>
-      </c>
-      <c r="D60" t="s" s="468">
-        <v>22</v>
-      </c>
-      <c r="E60" t="s" s="469">
-        <v>61</v>
-      </c>
-      <c r="F60" t="s" s="470">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s" s="471">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s" s="472">
-        <v>53</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="473">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s" s="474">
         <v>9</v>
       </c>
       <c r="C61" t="s" s="475">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D61" t="s" s="476">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s" s="477">
+        <v>54</v>
+      </c>
+      <c r="F61" t="s" s="478">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s" s="479">
         <v>42</v>
       </c>
-      <c r="F61" t="s" s="478">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s" s="479">
-        <v>53</v>
-      </c>
       <c r="H61" t="s" s="480">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="481">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s" s="482">
         <v>9</v>
       </c>
       <c r="C62" t="s" s="483">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s" s="484">
         <v>22</v>
       </c>
       <c r="E62" t="s" s="485">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s" s="486">
         <v>13</v>
       </c>
       <c r="G62" t="s" s="487">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="H62" t="s" s="488">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="489">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s" s="490">
         <v>9</v>
       </c>
       <c r="C63" t="s" s="491">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s" s="492">
         <v>11</v>
       </c>
       <c r="E63" t="s" s="493">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s" s="494">
         <v>13</v>
       </c>
       <c r="G63" t="s" s="495">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s" s="496">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="497">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s" s="498">
         <v>9</v>
       </c>
       <c r="C64" t="s" s="499">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s" s="500">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s" s="501">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F64" t="s" s="502">
         <v>13</v>
       </c>
       <c r="G64" t="s" s="503">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s" s="504">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="505">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s" s="506">
         <v>9</v>
       </c>
       <c r="C65" t="s" s="507">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D65" t="s" s="508">
         <v>11</v>
       </c>
       <c r="E65" t="s" s="509">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s" s="510">
         <v>13</v>
       </c>
       <c r="G65" t="s" s="511">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H65" t="s" s="512">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="513">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s" s="514">
         <v>9</v>
       </c>
       <c r="C66" t="s" s="515">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D66" t="s" s="516">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s" s="517">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F66" t="s" s="518">
         <v>13</v>
       </c>
       <c r="G66" t="s" s="519">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="H66" t="s" s="520">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67">
@@ -3185,13 +3239,13 @@
         <v>9</v>
       </c>
       <c r="C67" t="s" s="523">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s" s="524">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s" s="525">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s" s="526">
         <v>13</v>
@@ -3211,19 +3265,19 @@
         <v>9</v>
       </c>
       <c r="C68" t="s" s="531">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s" s="532">
         <v>22</v>
       </c>
       <c r="E68" t="s" s="533">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F68" t="s" s="534">
         <v>13</v>
       </c>
       <c r="G68" t="s" s="535">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s" s="536">
         <v>24</v>
@@ -3237,22 +3291,22 @@
         <v>9</v>
       </c>
       <c r="C69" t="s" s="539">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s" s="540">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s" s="541">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s" s="542">
         <v>13</v>
       </c>
       <c r="G69" t="s" s="543">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s" s="544">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
@@ -3263,22 +3317,22 @@
         <v>9</v>
       </c>
       <c r="C70" t="s" s="547">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D70" t="s" s="548">
         <v>22</v>
       </c>
       <c r="E70" t="s" s="549">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s" s="550">
         <v>13</v>
       </c>
       <c r="G70" t="s" s="551">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s" s="552">
         <v>24</v>
-      </c>
-      <c r="H70" t="s" s="552">
-        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -3289,22 +3343,22 @@
         <v>9</v>
       </c>
       <c r="C71" t="s" s="555">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s" s="556">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s" s="557">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s" s="558">
         <v>13</v>
       </c>
       <c r="G71" t="s" s="559">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H71" t="s" s="560">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72">
@@ -3315,22 +3369,22 @@
         <v>9</v>
       </c>
       <c r="C72" t="s" s="563">
+        <v>28</v>
+      </c>
+      <c r="D72" t="s" s="564">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s" s="565">
+        <v>59</v>
+      </c>
+      <c r="F72" t="s" s="566">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s" s="567">
         <v>39</v>
       </c>
-      <c r="D72" t="s" s="564">
-        <v>22</v>
-      </c>
-      <c r="E72" t="s" s="565">
-        <v>61</v>
-      </c>
-      <c r="F72" t="s" s="566">
-        <v>13</v>
-      </c>
-      <c r="G72" t="s" s="567">
+      <c r="H72" t="s" s="568">
         <v>24</v>
-      </c>
-      <c r="H72" t="s" s="568">
-        <v>36</v>
       </c>
     </row>
     <row r="73">
@@ -3341,22 +3395,22 @@
         <v>9</v>
       </c>
       <c r="C73" t="s" s="571">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s" s="572">
         <v>11</v>
       </c>
       <c r="E73" t="s" s="573">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s" s="574">
         <v>13</v>
       </c>
       <c r="G73" t="s" s="575">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H73" t="s" s="576">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -3367,91 +3421,91 @@
         <v>9</v>
       </c>
       <c r="C74" t="s" s="579">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s" s="580">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s" s="581">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s" s="582">
         <v>13</v>
       </c>
       <c r="G74" t="s" s="583">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s" s="584">
         <v>24</v>
-      </c>
-      <c r="H74" t="s" s="584">
-        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="585">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s" s="586">
         <v>9</v>
       </c>
       <c r="C75" t="s" s="587">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s" s="588">
         <v>22</v>
       </c>
       <c r="E75" t="s" s="589">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F75" t="s" s="590">
         <v>13</v>
       </c>
       <c r="G75" t="s" s="591">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H75" t="s" s="592">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="593">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s" s="594">
         <v>9</v>
       </c>
       <c r="C76" t="s" s="595">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s" s="596">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s" s="597">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s" s="598">
         <v>13</v>
       </c>
       <c r="G76" t="s" s="599">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H76" t="s" s="600">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="601">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s" s="602">
         <v>9</v>
       </c>
       <c r="C77" t="s" s="603">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s" s="604">
         <v>11</v>
       </c>
       <c r="E77" t="s" s="605">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="F77" t="s" s="606">
         <v>13</v>
@@ -3460,264 +3514,264 @@
         <v>24</v>
       </c>
       <c r="H77" t="s" s="608">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="609">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s" s="610">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s" s="611">
         <v>46</v>
       </c>
-      <c r="B78" t="s" s="610">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s" s="611">
-        <v>21</v>
-      </c>
       <c r="D78" t="s" s="612">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s" s="613">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s" s="614">
         <v>13</v>
       </c>
       <c r="G78" t="s" s="615">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H78" t="s" s="616">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="617">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s" s="618">
         <v>9</v>
       </c>
       <c r="C79" t="s" s="619">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s" s="620">
         <v>22</v>
       </c>
       <c r="E79" t="s" s="621">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F79" t="s" s="622">
         <v>13</v>
       </c>
       <c r="G79" t="s" s="623">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H79" t="s" s="624">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="625">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s" s="626">
         <v>9</v>
       </c>
       <c r="C80" t="s" s="627">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s" s="628">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s" s="629">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s" s="630">
         <v>13</v>
       </c>
       <c r="G80" t="s" s="631">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s" s="632">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="633">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B81" t="s" s="634">
         <v>9</v>
       </c>
       <c r="C81" t="s" s="635">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s" s="636">
         <v>11</v>
       </c>
       <c r="E81" t="s" s="637">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s" s="638">
         <v>13</v>
       </c>
       <c r="G81" t="s" s="639">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s" s="640">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="641">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B82" t="s" s="642">
         <v>9</v>
       </c>
       <c r="C82" t="s" s="643">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s" s="644">
         <v>11</v>
       </c>
       <c r="E82" t="s" s="645">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s" s="646">
         <v>13</v>
       </c>
       <c r="G82" t="s" s="647">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H82" t="s" s="648">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="649">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B83" t="s" s="650">
         <v>9</v>
       </c>
       <c r="C83" t="s" s="651">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s" s="652">
         <v>11</v>
       </c>
       <c r="E83" t="s" s="653">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F83" t="s" s="654">
         <v>13</v>
       </c>
       <c r="G83" t="s" s="655">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s" s="656">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="657">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B84" t="s" s="658">
         <v>9</v>
       </c>
       <c r="C84" t="s" s="659">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s" s="660">
         <v>22</v>
       </c>
       <c r="E84" t="s" s="661">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s" s="662">
         <v>13</v>
       </c>
       <c r="G84" t="s" s="663">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H84" t="s" s="664">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="665">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B85" t="s" s="666">
         <v>9</v>
       </c>
       <c r="C85" t="s" s="667">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D85" t="s" s="668">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s" s="669">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s" s="670">
         <v>13</v>
       </c>
       <c r="G85" t="s" s="671">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H85" t="s" s="672">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="673">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s" s="674">
         <v>9</v>
       </c>
       <c r="C86" t="s" s="675">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D86" t="s" s="676">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E86" t="s" s="677">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F86" t="s" s="678">
         <v>13</v>
       </c>
       <c r="G86" t="s" s="679">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H86" t="s" s="680">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="681">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s" s="682">
         <v>9</v>
       </c>
       <c r="C87" t="s" s="683">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s" s="684">
         <v>22</v>
       </c>
       <c r="E87" t="s" s="685">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F87" t="s" s="686">
         <v>13</v>
       </c>
       <c r="G87" t="s" s="687">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="H87" t="s" s="688">
         <v>36</v>
@@ -3725,25 +3779,25 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="689">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s" s="690">
         <v>9</v>
       </c>
       <c r="C88" t="s" s="691">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s" s="692">
         <v>11</v>
       </c>
       <c r="E88" t="s" s="693">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F88" t="s" s="694">
         <v>13</v>
       </c>
       <c r="G88" t="s" s="695">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H88" t="s" s="696">
         <v>14</v>
@@ -3751,77 +3805,77 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="697">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B89" t="s" s="698">
         <v>9</v>
       </c>
       <c r="C89" t="s" s="699">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s" s="700">
         <v>11</v>
       </c>
       <c r="E89" t="s" s="701">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s" s="702">
         <v>13</v>
       </c>
       <c r="G89" t="s" s="703">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H89" t="s" s="704">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="705">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s" s="706">
         <v>9</v>
       </c>
       <c r="C90" t="s" s="707">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D90" t="s" s="708">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s" s="709">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F90" t="s" s="710">
         <v>13</v>
       </c>
       <c r="G90" t="s" s="711">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s" s="712">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="713">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B91" t="s" s="714">
         <v>9</v>
       </c>
       <c r="C91" t="s" s="715">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s" s="716">
         <v>22</v>
       </c>
       <c r="E91" t="s" s="717">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s" s="718">
         <v>13</v>
       </c>
       <c r="G91" t="s" s="719">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s" s="720">
         <v>30</v>
@@ -3829,28 +3883,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="721">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B92" t="s" s="722">
         <v>9</v>
       </c>
       <c r="C92" t="s" s="723">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D92" t="s" s="724">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E92" t="s" s="725">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="F92" t="s" s="726">
         <v>13</v>
       </c>
       <c r="G92" t="s" s="727">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H92" t="s" s="728">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
@@ -3861,22 +3915,22 @@
         <v>9</v>
       </c>
       <c r="C93" t="s" s="731">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s" s="732">
         <v>11</v>
       </c>
       <c r="E93" t="s" s="733">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s" s="734">
         <v>13</v>
       </c>
       <c r="G93" t="s" s="735">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s" s="736">
         <v>14</v>
-      </c>
-      <c r="H93" t="s" s="736">
-        <v>51</v>
       </c>
     </row>
     <row r="94">
@@ -3887,22 +3941,22 @@
         <v>9</v>
       </c>
       <c r="C94" t="s" s="739">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s" s="740">
         <v>11</v>
       </c>
       <c r="E94" t="s" s="741">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F94" t="s" s="742">
         <v>13</v>
       </c>
       <c r="G94" t="s" s="743">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s" s="744">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
@@ -3913,22 +3967,22 @@
         <v>9</v>
       </c>
       <c r="C95" t="s" s="747">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s" s="748">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E95" t="s" s="749">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F95" t="s" s="750">
         <v>13</v>
       </c>
       <c r="G95" t="s" s="751">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s" s="752">
         <v>14</v>
-      </c>
-      <c r="H95" t="s" s="752">
-        <v>53</v>
       </c>
     </row>
     <row r="96">
@@ -3939,22 +3993,22 @@
         <v>9</v>
       </c>
       <c r="C96" t="s" s="755">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s" s="756">
         <v>11</v>
       </c>
       <c r="E96" t="s" s="757">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s" s="758">
         <v>13</v>
       </c>
       <c r="G96" t="s" s="759">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s" s="760">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -3965,22 +4019,22 @@
         <v>9</v>
       </c>
       <c r="C97" t="s" s="763">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s" s="764">
         <v>11</v>
       </c>
       <c r="E97" t="s" s="765">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F97" t="s" s="766">
         <v>13</v>
       </c>
       <c r="G97" t="s" s="767">
+        <v>17</v>
+      </c>
+      <c r="H97" t="s" s="768">
         <v>14</v>
-      </c>
-      <c r="H97" t="s" s="768">
-        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -3991,22 +4045,22 @@
         <v>9</v>
       </c>
       <c r="C98" t="s" s="771">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D98" t="s" s="772">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s" s="773">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F98" t="s" s="774">
         <v>13</v>
       </c>
       <c r="G98" t="s" s="775">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s" s="776">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
@@ -4017,22 +4071,22 @@
         <v>9</v>
       </c>
       <c r="C99" t="s" s="779">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s" s="780">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s" s="781">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s" s="782">
         <v>13</v>
       </c>
       <c r="G99" t="s" s="783">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s" s="784">
         <v>14</v>
-      </c>
-      <c r="H99" t="s" s="784">
-        <v>27</v>
       </c>
     </row>
     <row r="100">
@@ -4043,481 +4097,481 @@
         <v>9</v>
       </c>
       <c r="C100" t="s" s="787">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D100" t="s" s="788">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s" s="789">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s" s="790">
         <v>13</v>
       </c>
       <c r="G100" t="s" s="791">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s" s="792">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="793">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s" s="794">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="D101" t="s" s="796">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s" s="797">
+        <v>55</v>
+      </c>
+      <c r="F101" t="s" s="798">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s" s="799">
         <v>36</v>
       </c>
-      <c r="B101" t="s" s="794">
-        <v>9</v>
-      </c>
-      <c r="C101" t="s" s="795">
-        <v>10</v>
-      </c>
-      <c r="D101" t="s" s="796">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s" s="797">
-        <v>45</v>
-      </c>
-      <c r="F101" t="s" s="798">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s" s="799">
-        <v>17</v>
-      </c>
       <c r="H101" t="s" s="800">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="801">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s" s="802">
         <v>9</v>
       </c>
       <c r="C102" t="s" s="803">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s" s="804">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s" s="805">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F102" t="s" s="806">
         <v>13</v>
       </c>
       <c r="G102" t="s" s="807">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s" s="808">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="809">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s" s="810">
         <v>9</v>
       </c>
       <c r="C103" t="s" s="811">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s" s="812">
         <v>22</v>
       </c>
       <c r="E103" t="s" s="813">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F103" t="s" s="814">
         <v>13</v>
       </c>
       <c r="G103" t="s" s="815">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H103" t="s" s="816">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="817">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s" s="818">
         <v>9</v>
       </c>
       <c r="C104" t="s" s="819">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D104" t="s" s="820">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E104" t="s" s="821">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s" s="822">
         <v>13</v>
       </c>
       <c r="G104" t="s" s="823">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s" s="824">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="825">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s" s="826">
         <v>9</v>
       </c>
       <c r="C105" t="s" s="827">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D105" t="s" s="828">
         <v>22</v>
       </c>
       <c r="E105" t="s" s="829">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F105" t="s" s="830">
         <v>13</v>
       </c>
       <c r="G105" t="s" s="831">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s" s="832">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="833">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B106" t="s" s="834">
         <v>9</v>
       </c>
       <c r="C106" t="s" s="835">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s" s="836">
         <v>22</v>
       </c>
       <c r="E106" t="s" s="837">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F106" t="s" s="838">
         <v>13</v>
       </c>
       <c r="G106" t="s" s="839">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H106" t="s" s="840">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="841">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s" s="842">
         <v>9</v>
       </c>
       <c r="C107" t="s" s="843">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s" s="844">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E107" t="s" s="845">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F107" t="s" s="846">
         <v>13</v>
       </c>
       <c r="G107" t="s" s="847">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s" s="848">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="849">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s" s="850">
         <v>9</v>
       </c>
       <c r="C108" t="s" s="851">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s" s="852">
         <v>22</v>
       </c>
       <c r="E108" t="s" s="853">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F108" t="s" s="854">
         <v>13</v>
       </c>
       <c r="G108" t="s" s="855">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H108" t="s" s="856">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="857">
+        <v>45</v>
+      </c>
+      <c r="B109" t="s" s="858">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s" s="859">
+        <v>21</v>
+      </c>
+      <c r="D109" t="s" s="860">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s" s="861">
+        <v>53</v>
+      </c>
+      <c r="F109" t="s" s="862">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s" s="863">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s" s="864">
         <v>36</v>
-      </c>
-      <c r="B109" t="s" s="858">
-        <v>9</v>
-      </c>
-      <c r="C109" t="s" s="859">
-        <v>34</v>
-      </c>
-      <c r="D109" t="s" s="860">
-        <v>22</v>
-      </c>
-      <c r="E109" t="s" s="861">
-        <v>35</v>
-      </c>
-      <c r="F109" t="s" s="862">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s" s="863">
-        <v>36</v>
-      </c>
-      <c r="H109" t="s" s="864">
-        <v>8</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="865">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s" s="866">
         <v>9</v>
       </c>
       <c r="C110" t="s" s="867">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s" s="868">
         <v>22</v>
       </c>
       <c r="E110" t="s" s="869">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s" s="870">
         <v>13</v>
       </c>
       <c r="G110" t="s" s="871">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H110" t="s" s="872">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="873">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B111" t="s" s="874">
         <v>9</v>
       </c>
       <c r="C111" t="s" s="875">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D111" t="s" s="876">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s" s="877">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s" s="878">
         <v>13</v>
       </c>
       <c r="G111" t="s" s="879">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H111" t="s" s="880">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="881">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s" s="882">
         <v>9</v>
       </c>
       <c r="C112" t="s" s="883">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D112" t="s" s="884">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E112" t="s" s="885">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F112" t="s" s="886">
         <v>13</v>
       </c>
       <c r="G112" t="s" s="887">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H112" t="s" s="888">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="889">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s" s="890">
         <v>9</v>
       </c>
       <c r="C113" t="s" s="891">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s" s="892">
         <v>22</v>
       </c>
       <c r="E113" t="s" s="893">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s" s="894">
         <v>13</v>
       </c>
       <c r="G113" t="s" s="895">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s" s="896">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="897">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s" s="898">
         <v>9</v>
       </c>
       <c r="C114" t="s" s="899">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s" s="900">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s" s="901">
+        <v>55</v>
+      </c>
+      <c r="F114" t="s" s="902">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s" s="903">
         <v>45</v>
       </c>
-      <c r="F114" t="s" s="902">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s" s="903">
+      <c r="H114" t="s" s="904">
         <v>27</v>
-      </c>
-      <c r="H114" t="s" s="904">
-        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="905">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s" s="906">
         <v>9</v>
       </c>
       <c r="C115" t="s" s="907">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D115" t="s" s="908">
         <v>22</v>
       </c>
       <c r="E115" t="s" s="909">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s" s="910">
         <v>13</v>
       </c>
       <c r="G115" t="s" s="911">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s" s="912">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="913">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s" s="914">
         <v>9</v>
       </c>
       <c r="C116" t="s" s="915">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D116" t="s" s="916">
         <v>22</v>
       </c>
       <c r="E116" t="s" s="917">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s" s="918">
         <v>13</v>
       </c>
       <c r="G116" t="s" s="919">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H116" t="s" s="920">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="921">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s" s="922">
         <v>9</v>
       </c>
       <c r="C117" t="s" s="923">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D117" t="s" s="924">
         <v>11</v>
       </c>
       <c r="E117" t="s" s="925">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F117" t="s" s="926">
         <v>13</v>
       </c>
       <c r="G117" t="s" s="927">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H117" t="s" s="928">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="929">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B118" t="s" s="930">
         <v>9</v>
       </c>
       <c r="C118" t="s" s="931">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D118" t="s" s="932">
         <v>22</v>
       </c>
       <c r="E118" t="s" s="933">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F118" t="s" s="934">
         <v>13</v>
@@ -4526,73 +4580,73 @@
         <v>24</v>
       </c>
       <c r="H118" t="s" s="936">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="937">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s" s="938">
         <v>9</v>
       </c>
       <c r="C119" t="s" s="939">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s" s="940">
         <v>22</v>
       </c>
       <c r="E119" t="s" s="941">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F119" t="s" s="942">
         <v>13</v>
       </c>
       <c r="G119" t="s" s="943">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H119" t="s" s="944">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="945">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B120" t="s" s="946">
         <v>9</v>
       </c>
       <c r="C120" t="s" s="947">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D120" t="s" s="948">
         <v>22</v>
       </c>
       <c r="E120" t="s" s="949">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F120" t="s" s="950">
         <v>13</v>
       </c>
       <c r="G120" t="s" s="951">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="H120" t="s" s="952">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="953">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B121" t="s" s="954">
         <v>9</v>
       </c>
       <c r="C121" t="s" s="955">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D121" t="s" s="956">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s" s="957">
         <v>52</v>
@@ -4601,270 +4655,270 @@
         <v>13</v>
       </c>
       <c r="G121" t="s" s="959">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s" s="960">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="961">
+        <v>42</v>
+      </c>
+      <c r="B122" t="s" s="962">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s" s="963">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s" s="964">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s" s="965">
+        <v>23</v>
+      </c>
+      <c r="F122" t="s" s="966">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s" s="967">
+        <v>42</v>
+      </c>
+      <c r="H122" t="s" s="968">
         <v>33</v>
-      </c>
-      <c r="B122" t="s" s="962">
-        <v>9</v>
-      </c>
-      <c r="C122" t="s" s="963">
-        <v>37</v>
-      </c>
-      <c r="D122" t="s" s="964">
-        <v>22</v>
-      </c>
-      <c r="E122" t="s" s="965">
-        <v>54</v>
-      </c>
-      <c r="F122" t="s" s="966">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s" s="967">
-        <v>33</v>
-      </c>
-      <c r="H122" t="s" s="968">
-        <v>27</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="969">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B123" t="s" s="970">
         <v>9</v>
       </c>
       <c r="C123" t="s" s="971">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s" s="972">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E123" t="s" s="973">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F123" t="s" s="974">
         <v>13</v>
       </c>
       <c r="G123" t="s" s="975">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H123" t="s" s="976">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="977">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B124" t="s" s="978">
         <v>9</v>
       </c>
       <c r="C124" t="s" s="979">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D124" t="s" s="980">
         <v>11</v>
       </c>
       <c r="E124" t="s" s="981">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s" s="982">
         <v>13</v>
       </c>
       <c r="G124" t="s" s="983">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H124" t="s" s="984">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="985">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B125" t="s" s="986">
         <v>9</v>
       </c>
       <c r="C125" t="s" s="987">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D125" t="s" s="988">
         <v>22</v>
       </c>
       <c r="E125" t="s" s="989">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F125" t="s" s="990">
         <v>13</v>
       </c>
       <c r="G125" t="s" s="991">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H125" t="s" s="992">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="993">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B126" t="s" s="994">
         <v>9</v>
       </c>
       <c r="C126" t="s" s="995">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D126" t="s" s="996">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s" s="997">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F126" t="s" s="998">
         <v>13</v>
       </c>
       <c r="G126" t="s" s="999">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H126" t="s" s="1000">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="1001">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B127" t="s" s="1002">
         <v>9</v>
       </c>
       <c r="C127" t="s" s="1003">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D127" t="s" s="1004">
         <v>22</v>
       </c>
       <c r="E127" t="s" s="1005">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s" s="1006">
         <v>13</v>
       </c>
       <c r="G127" t="s" s="1007">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H127" t="s" s="1008">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="1009">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B128" t="s" s="1010">
         <v>9</v>
       </c>
       <c r="C128" t="s" s="1011">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s" s="1012">
         <v>22</v>
       </c>
       <c r="E128" t="s" s="1013">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s" s="1014">
         <v>13</v>
       </c>
       <c r="G128" t="s" s="1015">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="H128" t="s" s="1016">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="1017">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s" s="1018">
         <v>9</v>
       </c>
       <c r="C129" t="s" s="1019">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D129" t="s" s="1020">
         <v>22</v>
       </c>
       <c r="E129" t="s" s="1021">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F129" t="s" s="1022">
         <v>13</v>
       </c>
       <c r="G129" t="s" s="1023">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H129" t="s" s="1024">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="1025">
+        <v>42</v>
+      </c>
+      <c r="B130" t="s" s="1026">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s" s="1027">
+        <v>46</v>
+      </c>
+      <c r="D130" t="s" s="1028">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s" s="1029">
+        <v>62</v>
+      </c>
+      <c r="F130" t="s" s="1030">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s" s="1031">
+        <v>42</v>
+      </c>
+      <c r="H130" t="s" s="1032">
         <v>27</v>
-      </c>
-      <c r="B130" t="s" s="1026">
-        <v>9</v>
-      </c>
-      <c r="C130" t="s" s="1027">
-        <v>25</v>
-      </c>
-      <c r="D130" t="s" s="1028">
-        <v>11</v>
-      </c>
-      <c r="E130" t="s" s="1029">
-        <v>26</v>
-      </c>
-      <c r="F130" t="s" s="1030">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s" s="1031">
-        <v>27</v>
-      </c>
-      <c r="H130" t="s" s="1032">
-        <v>8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="1033">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s" s="1034">
         <v>9</v>
       </c>
       <c r="C131" t="s" s="1035">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D131" t="s" s="1036">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E131" t="s" s="1037">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F131" t="s" s="1038">
         <v>13</v>
       </c>
       <c r="G131" t="s" s="1039">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H131" t="s" s="1040">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132">
@@ -4875,10 +4929,10 @@
         <v>9</v>
       </c>
       <c r="C132" t="s" s="1043">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s" s="1044">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E132" t="s" s="1045">
         <v>50</v>
@@ -4887,10 +4941,10 @@
         <v>13</v>
       </c>
       <c r="G132" t="s" s="1047">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H132" t="s" s="1048">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133">
@@ -4901,22 +4955,22 @@
         <v>9</v>
       </c>
       <c r="C133" t="s" s="1051">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D133" t="s" s="1052">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E133" t="s" s="1053">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F133" t="s" s="1054">
         <v>13</v>
       </c>
       <c r="G133" t="s" s="1055">
+        <v>39</v>
+      </c>
+      <c r="H133" t="s" s="1056">
         <v>27</v>
-      </c>
-      <c r="H133" t="s" s="1056">
-        <v>46</v>
       </c>
     </row>
     <row r="134">
@@ -4927,22 +4981,22 @@
         <v>9</v>
       </c>
       <c r="C134" t="s" s="1059">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s" s="1060">
         <v>22</v>
       </c>
       <c r="E134" t="s" s="1061">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F134" t="s" s="1062">
         <v>13</v>
       </c>
       <c r="G134" t="s" s="1063">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H134" t="s" s="1064">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -4953,19 +5007,19 @@
         <v>9</v>
       </c>
       <c r="C135" t="s" s="1067">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s" s="1068">
         <v>22</v>
       </c>
       <c r="E135" t="s" s="1069">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="F135" t="s" s="1070">
         <v>13</v>
       </c>
       <c r="G135" t="s" s="1071">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H135" t="s" s="1072">
         <v>27</v>
@@ -4979,13 +5033,13 @@
         <v>9</v>
       </c>
       <c r="C136" t="s" s="1075">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D136" t="s" s="1076">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s" s="1077">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s" s="1078">
         <v>13</v>
@@ -4994,7 +5048,7 @@
         <v>27</v>
       </c>
       <c r="H136" t="s" s="1080">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
@@ -5005,22 +5059,22 @@
         <v>9</v>
       </c>
       <c r="C137" t="s" s="1083">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D137" t="s" s="1084">
         <v>22</v>
       </c>
       <c r="E137" t="s" s="1085">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F137" t="s" s="1086">
         <v>13</v>
       </c>
       <c r="G137" t="s" s="1087">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H137" t="s" s="1088">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138">
@@ -5031,111 +5085,111 @@
         <v>9</v>
       </c>
       <c r="C138" t="s" s="1091">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D138" t="s" s="1092">
         <v>11</v>
       </c>
       <c r="E138" t="s" s="1093">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F138" t="s" s="1094">
         <v>13</v>
       </c>
       <c r="G138" t="s" s="1095">
+        <v>30</v>
+      </c>
+      <c r="H138" t="s" s="1096">
         <v>27</v>
-      </c>
-      <c r="H138" t="s" s="1096">
-        <v>20</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="1097">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B139" t="s" s="1098">
         <v>9</v>
       </c>
       <c r="C139" t="s" s="1099">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s" s="1100">
         <v>11</v>
       </c>
       <c r="E139" t="s" s="1101">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F139" t="s" s="1102">
         <v>13</v>
       </c>
       <c r="G139" t="s" s="1103">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H139" t="s" s="1104">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="1105">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B140" t="s" s="1106">
         <v>9</v>
       </c>
       <c r="C140" t="s" s="1107">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D140" t="s" s="1108">
         <v>11</v>
       </c>
       <c r="E140" t="s" s="1109">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F140" t="s" s="1110">
         <v>13</v>
       </c>
       <c r="G140" t="s" s="1111">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H140" t="s" s="1112">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="1113">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s" s="1114">
         <v>9</v>
       </c>
       <c r="C141" t="s" s="1115">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s" s="1116">
         <v>11</v>
       </c>
       <c r="E141" t="s" s="1117">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s" s="1118">
         <v>13</v>
       </c>
       <c r="G141" t="s" s="1119">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H141" t="s" s="1120">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="1121">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s" s="1122">
         <v>9</v>
       </c>
       <c r="C142" t="s" s="1123">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D142" t="s" s="1124">
         <v>11</v>
@@ -5147,248 +5201,404 @@
         <v>13</v>
       </c>
       <c r="G142" t="s" s="1127">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H142" t="s" s="1128">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="1129">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s" s="1130">
         <v>9</v>
       </c>
       <c r="C143" t="s" s="1131">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D143" t="s" s="1132">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s" s="1133">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F143" t="s" s="1134">
         <v>13</v>
       </c>
       <c r="G143" t="s" s="1135">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H143" t="s" s="1136">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="1137">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s" s="1138">
         <v>9</v>
       </c>
       <c r="C144" t="s" s="1139">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D144" t="s" s="1140">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E144" t="s" s="1141">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F144" t="s" s="1142">
         <v>13</v>
       </c>
       <c r="G144" t="s" s="1143">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H144" t="s" s="1144">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="1145">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B145" t="s" s="1146">
         <v>9</v>
       </c>
       <c r="C145" t="s" s="1147">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s" s="1148">
         <v>11</v>
       </c>
       <c r="E145" t="s" s="1149">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s" s="1150">
         <v>13</v>
       </c>
       <c r="G145" t="s" s="1151">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H145" t="s" s="1152">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="1153">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B146" t="s" s="1154">
         <v>9</v>
       </c>
       <c r="C146" t="s" s="1155">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s" s="1156">
         <v>11</v>
       </c>
       <c r="E146" t="s" s="1157">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F146" t="s" s="1158">
         <v>13</v>
       </c>
       <c r="G146" t="s" s="1159">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H146" t="s" s="1160">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="1161">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B147" t="s" s="1162">
         <v>9</v>
       </c>
       <c r="C147" t="s" s="1163">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s" s="1164">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s" s="1165">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F147" t="s" s="1166">
         <v>13</v>
       </c>
       <c r="G147" t="s" s="1167">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H147" t="s" s="1168">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="1169">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B148" t="s" s="1170">
         <v>9</v>
       </c>
       <c r="C148" t="s" s="1171">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s" s="1172">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E148" t="s" s="1173">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s" s="1174">
         <v>13</v>
       </c>
       <c r="G148" t="s" s="1175">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H148" t="s" s="1176">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="1177">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B149" t="s" s="1178">
         <v>9</v>
       </c>
       <c r="C149" t="s" s="1179">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D149" t="s" s="1180">
         <v>22</v>
       </c>
       <c r="E149" t="s" s="1181">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F149" t="s" s="1182">
         <v>13</v>
       </c>
       <c r="G149" t="s" s="1183">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H149" t="s" s="1184">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="1185">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s" s="1186">
         <v>9</v>
       </c>
       <c r="C150" t="s" s="1187">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s" s="1188">
         <v>22</v>
       </c>
       <c r="E150" t="s" s="1189">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F150" t="s" s="1190">
         <v>13</v>
       </c>
       <c r="G150" t="s" s="1191">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s" s="1192">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="1193">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B151" t="s" s="1194">
         <v>9</v>
       </c>
       <c r="C151" t="s" s="1195">
+        <v>31</v>
+      </c>
+      <c r="D151" t="s" s="1196">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s" s="1197">
+        <v>32</v>
+      </c>
+      <c r="F151" t="s" s="1198">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s" s="1199">
+        <v>33</v>
+      </c>
+      <c r="H151" t="s" s="1200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="1201">
+        <v>33</v>
+      </c>
+      <c r="B152" t="s" s="1202">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s" s="1203">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s" s="1204">
+        <v>11</v>
+      </c>
+      <c r="E152" t="s" s="1205">
+        <v>54</v>
+      </c>
+      <c r="F152" t="s" s="1206">
+        <v>13</v>
+      </c>
+      <c r="G152" t="s" s="1207">
+        <v>27</v>
+      </c>
+      <c r="H152" t="s" s="1208">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="1209">
+        <v>33</v>
+      </c>
+      <c r="B153" t="s" s="1210">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s" s="1211">
+        <v>37</v>
+      </c>
+      <c r="D153" t="s" s="1212">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s" s="1213">
+        <v>55</v>
+      </c>
+      <c r="F153" t="s" s="1214">
+        <v>13</v>
+      </c>
+      <c r="G153" t="s" s="1215">
+        <v>33</v>
+      </c>
+      <c r="H153" t="s" s="1216">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="1217">
+        <v>33</v>
+      </c>
+      <c r="B154" t="s" s="1218">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s" s="1219">
+        <v>40</v>
+      </c>
+      <c r="D154" t="s" s="1220">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s" s="1221">
+        <v>61</v>
+      </c>
+      <c r="F154" t="s" s="1222">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s" s="1223">
+        <v>17</v>
+      </c>
+      <c r="H154" t="s" s="1224">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="1225">
+        <v>33</v>
+      </c>
+      <c r="B155" t="s" s="1226">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s" s="1227">
         <v>43</v>
       </c>
-      <c r="D151" t="s" s="1196">
-        <v>22</v>
-      </c>
-      <c r="E151" t="s" s="1197">
-        <v>59</v>
-      </c>
-      <c r="F151" t="s" s="1198">
-        <v>13</v>
-      </c>
-      <c r="G151" t="s" s="1199">
-        <v>51</v>
-      </c>
-      <c r="H151" t="s" s="1200">
+      <c r="D155" t="s" s="1228">
+        <v>22</v>
+      </c>
+      <c r="E155" t="s" s="1229">
+        <v>44</v>
+      </c>
+      <c r="F155" t="s" s="1230">
+        <v>13</v>
+      </c>
+      <c r="G155" t="s" s="1231">
         <v>33</v>
       </c>
+      <c r="H155" t="s" s="1232">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="1233">
+        <v>33</v>
+      </c>
+      <c r="B156" t="s" s="1234">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s" s="1235">
+        <v>46</v>
+      </c>
+      <c r="D156" t="s" s="1236">
+        <v>22</v>
+      </c>
+      <c r="E156" t="s" s="1237">
+        <v>47</v>
+      </c>
+      <c r="F156" t="s" s="1238">
+        <v>13</v>
+      </c>
+      <c r="G156" t="s" s="1239">
+        <v>33</v>
+      </c>
+      <c r="H156" t="s" s="1240">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="1241">
+        <v>33</v>
+      </c>
+      <c r="B157" t="s" s="1242">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s" s="1243">
+        <v>48</v>
+      </c>
+      <c r="D157" t="s" s="1244">
+        <v>57</v>
+      </c>
+      <c r="E157" t="s" s="1245">
+        <v>58</v>
+      </c>
+      <c r="F157" t="s" s="1246">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s" s="1247">
+        <v>33</v>
+      </c>
+      <c r="H157" t="s" s="1248">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H150"/>
+  <autoFilter ref="A1:H157"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>